--- a/cta策略/result/螺纹/Aberration_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/Aberration_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1167471086909819</v>
+        <v>0.09142177468723101</v>
       </c>
       <c r="D2">
-        <v>0.3760225572600821</v>
+        <v>0.2587460818310579</v>
       </c>
       <c r="E2">
-        <v>0.2318524296349139</v>
+        <v>0.3209833688941889</v>
       </c>
       <c r="F2">
-        <v>0.625</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/Aberration_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/Aberration_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.09142177468723101</v>
+        <v>0.1843754262941748</v>
       </c>
       <c r="D2">
-        <v>0.2587460818310579</v>
+        <v>0.6261543426263403</v>
       </c>
       <c r="E2">
-        <v>0.3209833688941889</v>
+        <v>0.4857366091956999</v>
       </c>
       <c r="F2">
-        <v>0.7058823529411765</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
   </sheetData>
